--- a/20240206_categorizes_edge_actions_drug_protein.xlsx
+++ b/20240206_categorizes_edge_actions_drug_protein.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="307">
   <si>
     <t xml:space="preserve">metabolism (is_active_in_metabolism)</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t xml:space="preserve">activity_ctd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car t-cell therapy_drugbank</t>
   </si>
   <si>
     <t xml:space="preserve">other_drugbank_drugcentral</t>
@@ -1346,8 +1349,8 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1499,9 +1502,11 @@
       <c r="J4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="14"/>
+      <c r="K4" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="L4" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1509,33 +1514,33 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1543,31 +1548,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1575,31 +1580,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K7" s="24"/>
       <c r="L7" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1607,27 +1612,27 @@
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="17"/>
@@ -1637,27 +1642,27 @@
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="14"/>
@@ -1667,27 +1672,27 @@
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -1697,27 +1702,27 @@
         <v>9</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -1727,22 +1732,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="14"/>
       <c r="I12" s="21"/>
       <c r="J12" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -1752,23 +1757,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="21"/>
       <c r="J13" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -1778,10 +1783,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -1790,7 +1795,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -1800,10 +1805,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1812,7 +1817,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -1822,10 +1827,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1834,7 +1839,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="21"/>
       <c r="J16" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
@@ -1844,10 +1849,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="14"/>
@@ -1856,7 +1861,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -1866,10 +1871,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -1878,7 +1883,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -1888,10 +1893,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -1900,7 +1905,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -1910,10 +1915,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1922,7 +1927,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
@@ -1932,10 +1937,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -1944,7 +1949,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -1954,10 +1959,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -1966,7 +1971,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
@@ -1976,10 +1981,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1988,7 +1993,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -1998,10 +2003,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -2018,10 +2023,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -2038,10 +2043,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -2058,10 +2063,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -2078,10 +2083,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -2098,10 +2103,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -2118,10 +2123,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -2138,10 +2143,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -2158,10 +2163,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -2178,7 +2183,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -2196,7 +2201,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -2214,7 +2219,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="14"/>
@@ -2232,7 +2237,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -2250,7 +2255,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -2268,7 +2273,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -2286,7 +2291,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
@@ -2304,12 +2309,12 @@
     </row>
     <row r="41" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2347,13 +2352,13 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2361,10 +2366,10 @@
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2372,21 +2377,21 @@
         <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,32 +2399,32 @@
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2427,21 +2432,21 @@
         <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,10 +2454,10 @@
         <v>27</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,76 +2465,76 @@
         <v>24</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,10 +2542,10 @@
         <v>31</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,74 +2553,74 @@
         <v>35</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2623,32 +2628,32 @@
         <v>26</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2656,32 +2661,32 @@
         <v>37</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2689,114 +2694,114 @@
         <v>29</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B37" s="35"/>
       <c r="C37" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B38" s="35"/>
       <c r="C38" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,25 +2810,25 @@
       </c>
       <c r="B43" s="35"/>
       <c r="C43" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" s="35"/>
       <c r="C44" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" s="35"/>
       <c r="C45" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2832,38 +2837,38 @@
       </c>
       <c r="B46" s="35"/>
       <c r="C46" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B47" s="35"/>
       <c r="C47" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2871,859 +2876,859 @@
         <v>36</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" s="35"/>
       <c r="C54" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" s="35"/>
       <c r="C55" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B67" s="35"/>
       <c r="C67" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B68" s="35"/>
       <c r="C68" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B70" s="35"/>
       <c r="C70" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B73" s="35"/>
       <c r="C73" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B79" s="35"/>
       <c r="C79" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B80" s="35"/>
       <c r="C80" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B83" s="35"/>
       <c r="C83" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B88" s="35"/>
       <c r="C88" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B90" s="35"/>
       <c r="C90" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B92" s="35"/>
       <c r="C92" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B94" s="35"/>
       <c r="C94" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B96" s="35"/>
       <c r="C96" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B101" s="35"/>
       <c r="C101" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B106" s="35"/>
       <c r="C106" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B107" s="35"/>
       <c r="C107" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B110" s="35"/>
       <c r="C110" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B112" s="35"/>
       <c r="C112" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B113" s="35"/>
       <c r="C113" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B118" s="35"/>
       <c r="C118" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B122" s="35"/>
       <c r="C122" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B127" s="35"/>
       <c r="C127" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B128" s="35"/>
       <c r="C128" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B132" s="35"/>
       <c r="C132" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B133" s="35"/>
       <c r="C133" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3732,56 +3737,56 @@
       </c>
       <c r="B134" s="35"/>
       <c r="C134" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B135" s="35"/>
       <c r="C135" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B136" s="35"/>
       <c r="C136" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B138" s="35"/>
       <c r="C138" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
